--- a/provisional/insertsSEGURIDAD.xlsx
+++ b/provisional/insertsSEGURIDAD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luismi\Desktop\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub_Seguridad\BaseSistemasIntegrados\provisional\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21720" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inserts iniciales" sheetId="3" r:id="rId1"/>
@@ -8563,8 +8563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection sqref="A1:A161"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12383,9 +12383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection sqref="A1:G201"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
